--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Rohit\Automation\Demo\Kaman\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\ECTEST_Change_branch\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B964C312-F4E3-4A20-A23C-B8EB88573430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0CD16D-B0F4-4937-AAA0-17EDAC55BBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,12 +74,6 @@
     <t>CLICK</t>
   </si>
   <si>
-    <t>bep-dvlp@kaman.com</t>
-  </si>
-  <si>
-    <t>bep999</t>
-  </si>
-  <si>
     <t>AccModel</t>
   </si>
   <si>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>$BaseURL</t>
+  </si>
+  <si>
+    <t>$Managed_Username</t>
+  </si>
+  <si>
+    <t>$Managed_Password</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -746,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -761,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -771,7 +771,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -783,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -811,13 +811,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -826,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -841,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -854,13 +854,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -882,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -897,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -912,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -927,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -940,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -955,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -968,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -983,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -996,13 +996,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1011,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -1024,13 +1024,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1039,13 +1039,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1067,13 +1067,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1095,13 +1095,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1123,13 +1123,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1138,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -1151,13 +1151,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1166,13 +1166,13 @@
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1181,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -1194,13 +1194,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1209,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -1222,13 +1222,13 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1237,13 +1237,13 @@
         <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -1265,13 +1265,13 @@
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1280,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -1293,13 +1293,13 @@
         <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1308,13 +1308,13 @@
         <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1323,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1336,13 +1336,13 @@
         <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1351,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
@@ -1364,13 +1364,13 @@
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1379,7 +1379,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
@@ -1392,13 +1392,13 @@
         <v>12</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
@@ -1420,13 +1420,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1435,13 +1435,13 @@
         <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1450,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -1463,13 +1463,13 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1478,7 +1478,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
@@ -1491,19 +1491,19 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1515,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
@@ -1528,13 +1528,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1543,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
@@ -1556,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1599,28 +1599,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -1644,103 +1644,103 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1748,15 +1748,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="b">
         <v>1</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="b">
         <v>1</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3" t="b">
         <v>1</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3" t="b">
         <v>1</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="b">
         <v>1</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3" t="b">
         <v>1</v>
@@ -1924,15 +1924,19 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="5" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://192.168.15.18/storeus" xr:uid="{58BD2EB3-52F6-49BC-8731-5E278620B173}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://192.168.15.18/storeus" xr:uid="{E6B67561-E8DB-4ACB-8AD0-AFDAF0D44214}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1946,12 +1950,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2148,6 +2146,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
@@ -2157,15 +2161,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2182,4 +2177,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>